--- a/Data/Excel_Wide/camino_groups_wide.xlsx
+++ b/Data/Excel_Wide/camino_groups_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W225"/>
+  <dimension ref="A1:W227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,37 +563,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="E2" t="n">
+        <v>188</v>
+      </c>
+      <c r="F2" t="n">
+        <v>174</v>
+      </c>
+      <c r="G2" t="n">
+        <v>128</v>
+      </c>
+      <c r="H2" t="n">
+        <v>108</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
         <v>94</v>
       </c>
-      <c r="F2" t="n">
-        <v>87</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>54</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47</v>
-      </c>
       <c r="K2" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -636,37 +636,37 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>486</v>
+        <v>972</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="F3" t="n">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="G3" t="n">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="I3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J3" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="K3" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="L3" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="N3" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -709,37 +709,37 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>822</v>
+        <v>1644</v>
       </c>
       <c r="E4" t="n">
-        <v>376</v>
+        <v>752</v>
       </c>
       <c r="F4" t="n">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="G4" t="n">
-        <v>358</v>
+        <v>716</v>
       </c>
       <c r="H4" t="n">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="I4" t="n">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="J4" t="n">
-        <v>283</v>
+        <v>566</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>502</v>
       </c>
       <c r="L4" t="n">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="M4" t="n">
-        <v>210</v>
+        <v>420</v>
       </c>
       <c r="N4" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3105</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -782,37 +782,37 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4552</v>
+        <v>9104</v>
       </c>
       <c r="E5" t="n">
-        <v>1442</v>
+        <v>2884</v>
       </c>
       <c r="F5" t="n">
-        <v>1968</v>
+        <v>3936</v>
       </c>
       <c r="G5" t="n">
-        <v>2097</v>
+        <v>4194</v>
       </c>
       <c r="H5" t="n">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="I5" t="n">
-        <v>829</v>
+        <v>1658</v>
       </c>
       <c r="J5" t="n">
-        <v>1386</v>
+        <v>2772</v>
       </c>
       <c r="K5" t="n">
-        <v>813</v>
+        <v>1626</v>
       </c>
       <c r="L5" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="M5" t="n">
-        <v>833</v>
+        <v>1666</v>
       </c>
       <c r="N5" t="n">
-        <v>344</v>
+        <v>688</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>15554</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -855,37 +855,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>2392</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2094</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5024</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7252</v>
+      </c>
+      <c r="H6" t="n">
         <v>1196</v>
       </c>
-      <c r="E6" t="n">
-        <v>1047</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2512</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3626</v>
-      </c>
-      <c r="H6" t="n">
-        <v>598</v>
-      </c>
       <c r="I6" t="n">
-        <v>2640</v>
+        <v>5280</v>
       </c>
       <c r="J6" t="n">
-        <v>1940</v>
+        <v>3880</v>
       </c>
       <c r="K6" t="n">
-        <v>1220</v>
+        <v>2440</v>
       </c>
       <c r="L6" t="n">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="M6" t="n">
-        <v>1334</v>
+        <v>2668</v>
       </c>
       <c r="N6" t="n">
-        <v>492</v>
+        <v>984</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>16860</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -928,37 +928,37 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2163</v>
+        <v>4326</v>
       </c>
       <c r="E7" t="n">
-        <v>1371</v>
+        <v>2742</v>
       </c>
       <c r="F7" t="n">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="G7" t="n">
-        <v>3738</v>
+        <v>7476</v>
       </c>
       <c r="H7" t="n">
-        <v>857</v>
+        <v>1714</v>
       </c>
       <c r="I7" t="n">
-        <v>2486</v>
+        <v>4972</v>
       </c>
       <c r="J7" t="n">
-        <v>2320</v>
+        <v>4640</v>
       </c>
       <c r="K7" t="n">
-        <v>1467</v>
+        <v>2934</v>
       </c>
       <c r="L7" t="n">
-        <v>329</v>
+        <v>658</v>
       </c>
       <c r="M7" t="n">
-        <v>1276</v>
+        <v>2552</v>
       </c>
       <c r="N7" t="n">
-        <v>588</v>
+        <v>1176</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>19295</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -1001,37 +1001,37 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>12030</v>
+        <v>24060</v>
       </c>
       <c r="E8" t="n">
-        <v>1391</v>
+        <v>2782</v>
       </c>
       <c r="F8" t="n">
-        <v>2985</v>
+        <v>5970</v>
       </c>
       <c r="G8" t="n">
-        <v>3855</v>
+        <v>7710</v>
       </c>
       <c r="H8" t="n">
-        <v>3119</v>
+        <v>6238</v>
       </c>
       <c r="I8" t="n">
-        <v>1546</v>
+        <v>3092</v>
       </c>
       <c r="J8" t="n">
-        <v>2668</v>
+        <v>5336</v>
       </c>
       <c r="K8" t="n">
-        <v>1729</v>
+        <v>3458</v>
       </c>
       <c r="L8" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="M8" t="n">
-        <v>1443</v>
+        <v>2886</v>
       </c>
       <c r="N8" t="n">
-        <v>851</v>
+        <v>1702</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>31891</v>
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -1074,40 +1074,40 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>15568</v>
+        <v>31136</v>
       </c>
       <c r="E9" t="n">
-        <v>3219</v>
+        <v>6438</v>
       </c>
       <c r="F9" t="n">
-        <v>5320</v>
+        <v>10640</v>
       </c>
       <c r="G9" t="n">
-        <v>7109</v>
+        <v>14218</v>
       </c>
       <c r="H9" t="n">
-        <v>3909</v>
+        <v>7818</v>
       </c>
       <c r="I9" t="n">
-        <v>963</v>
+        <v>1926</v>
       </c>
       <c r="J9" t="n">
-        <v>4154</v>
+        <v>8308</v>
       </c>
       <c r="K9" t="n">
-        <v>1581</v>
+        <v>3162</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1754</v>
+        <v>3508</v>
       </c>
       <c r="N9" t="n">
-        <v>1451</v>
+        <v>2902</v>
       </c>
       <c r="O9" t="n">
-        <v>573</v>
+        <v>1146</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>45601</v>
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -1147,37 +1147,37 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>4841</v>
+        <v>9682</v>
       </c>
       <c r="E10" t="n">
-        <v>1289</v>
+        <v>2578</v>
       </c>
       <c r="F10" t="n">
-        <v>2965</v>
+        <v>5930</v>
       </c>
       <c r="G10" t="n">
-        <v>4270</v>
+        <v>8540</v>
       </c>
       <c r="H10" t="n">
-        <v>934</v>
+        <v>1868</v>
       </c>
       <c r="I10" t="n">
-        <v>2053</v>
+        <v>4106</v>
       </c>
       <c r="J10" t="n">
-        <v>2714</v>
+        <v>5428</v>
       </c>
       <c r="K10" t="n">
-        <v>1410</v>
+        <v>2820</v>
       </c>
       <c r="L10" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="M10" t="n">
-        <v>1241</v>
+        <v>2482</v>
       </c>
       <c r="N10" t="n">
-        <v>765</v>
+        <v>1530</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22752</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -1220,37 +1220,37 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>2372</v>
+        <v>4744</v>
       </c>
       <c r="E11" t="n">
-        <v>782</v>
+        <v>1564</v>
       </c>
       <c r="F11" t="n">
-        <v>2325</v>
+        <v>4650</v>
       </c>
       <c r="G11" t="n">
-        <v>2491</v>
+        <v>4982</v>
       </c>
       <c r="H11" t="n">
-        <v>615</v>
+        <v>1230</v>
       </c>
       <c r="I11" t="n">
-        <v>1530</v>
+        <v>3060</v>
       </c>
       <c r="J11" t="n">
-        <v>1857</v>
+        <v>3714</v>
       </c>
       <c r="K11" t="n">
-        <v>957</v>
+        <v>1914</v>
       </c>
       <c r="L11" t="n">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="M11" t="n">
-        <v>922</v>
+        <v>1844</v>
       </c>
       <c r="N11" t="n">
-        <v>463</v>
+        <v>926</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>14556</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -1293,37 +1293,37 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="E12" t="n">
-        <v>410</v>
+        <v>820</v>
       </c>
       <c r="F12" t="n">
-        <v>724</v>
+        <v>1448</v>
       </c>
       <c r="G12" t="n">
-        <v>916</v>
+        <v>1832</v>
       </c>
       <c r="H12" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="I12" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="J12" t="n">
-        <v>491</v>
+        <v>982</v>
       </c>
       <c r="K12" t="n">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="L12" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="M12" t="n">
-        <v>374</v>
+        <v>748</v>
       </c>
       <c r="N12" t="n">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4410</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -1366,37 +1366,37 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>557</v>
+        <v>1114</v>
       </c>
       <c r="E13" t="n">
-        <v>457</v>
+        <v>914</v>
       </c>
       <c r="F13" t="n">
-        <v>532</v>
+        <v>1064</v>
       </c>
       <c r="G13" t="n">
-        <v>655</v>
+        <v>1310</v>
       </c>
       <c r="H13" t="n">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="I13" t="n">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="J13" t="n">
-        <v>477</v>
+        <v>954</v>
       </c>
       <c r="K13" t="n">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="L13" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>306</v>
+        <v>612</v>
       </c>
       <c r="N13" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3802</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -1439,43 +1439,43 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E14" t="n">
+        <v>56</v>
+      </c>
+      <c r="F14" t="n">
+        <v>86</v>
+      </c>
+      <c r="G14" t="n">
+        <v>76</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34</v>
+      </c>
+      <c r="I14" t="n">
         <v>28</v>
       </c>
-      <c r="F14" t="n">
-        <v>43</v>
-      </c>
-      <c r="G14" t="n">
-        <v>38</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L14" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -1512,37 +1512,37 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="H15" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J15" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M15" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -1585,37 +1585,37 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="E16" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="F16" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="G16" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
       <c r="H16" t="n">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="I16" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="J16" t="n">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="K16" t="n">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="L16" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M16" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="N16" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3121</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -1658,37 +1658,37 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>734</v>
+        <v>1468</v>
       </c>
       <c r="E17" t="n">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="F17" t="n">
-        <v>405</v>
+        <v>810</v>
       </c>
       <c r="G17" t="n">
-        <v>505</v>
+        <v>1010</v>
       </c>
       <c r="H17" t="n">
-        <v>231</v>
+        <v>462</v>
       </c>
       <c r="I17" t="n">
-        <v>437</v>
+        <v>874</v>
       </c>
       <c r="J17" t="n">
-        <v>379</v>
+        <v>758</v>
       </c>
       <c r="K17" t="n">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="L17" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="M17" t="n">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="N17" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3307</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -1731,37 +1731,37 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>611</v>
+        <v>1222</v>
       </c>
       <c r="E18" t="n">
-        <v>405</v>
+        <v>810</v>
       </c>
       <c r="F18" t="n">
-        <v>1207</v>
+        <v>2414</v>
       </c>
       <c r="G18" t="n">
-        <v>1734</v>
+        <v>3468</v>
       </c>
       <c r="H18" t="n">
-        <v>383</v>
+        <v>766</v>
       </c>
       <c r="I18" t="n">
-        <v>2130</v>
+        <v>4260</v>
       </c>
       <c r="J18" t="n">
-        <v>1403</v>
+        <v>2806</v>
       </c>
       <c r="K18" t="n">
-        <v>534</v>
+        <v>1068</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>392</v>
+        <v>784</v>
       </c>
       <c r="N18" t="n">
-        <v>352</v>
+        <v>704</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>9310</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -1804,37 +1804,37 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1151</v>
+        <v>2302</v>
       </c>
       <c r="E19" t="n">
-        <v>589</v>
+        <v>1178</v>
       </c>
       <c r="F19" t="n">
-        <v>1516</v>
+        <v>3032</v>
       </c>
       <c r="G19" t="n">
-        <v>2198</v>
+        <v>4396</v>
       </c>
       <c r="H19" t="n">
-        <v>515</v>
+        <v>1030</v>
       </c>
       <c r="I19" t="n">
-        <v>2911</v>
+        <v>5822</v>
       </c>
       <c r="J19" t="n">
-        <v>1729</v>
+        <v>3458</v>
       </c>
       <c r="K19" t="n">
-        <v>759</v>
+        <v>1518</v>
       </c>
       <c r="L19" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="M19" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
       <c r="N19" t="n">
-        <v>463</v>
+        <v>926</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>12619</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -1877,37 +1877,37 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>6462</v>
+        <v>12924</v>
       </c>
       <c r="E20" t="n">
-        <v>789</v>
+        <v>1578</v>
       </c>
       <c r="F20" t="n">
-        <v>1681</v>
+        <v>3362</v>
       </c>
       <c r="G20" t="n">
-        <v>2262</v>
+        <v>4524</v>
       </c>
       <c r="H20" t="n">
-        <v>2416</v>
+        <v>4832</v>
       </c>
       <c r="I20" t="n">
-        <v>1190</v>
+        <v>2380</v>
       </c>
       <c r="J20" t="n">
-        <v>1781</v>
+        <v>3562</v>
       </c>
       <c r="K20" t="n">
-        <v>911</v>
+        <v>1822</v>
       </c>
       <c r="L20" t="n">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="M20" t="n">
-        <v>541</v>
+        <v>1082</v>
       </c>
       <c r="N20" t="n">
-        <v>533</v>
+        <v>1066</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>18804</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -1950,37 +1950,37 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>5198</v>
+        <v>10396</v>
       </c>
       <c r="E21" t="n">
-        <v>1763</v>
+        <v>3526</v>
       </c>
       <c r="F21" t="n">
-        <v>3194</v>
+        <v>6388</v>
       </c>
       <c r="G21" t="n">
-        <v>5113</v>
+        <v>10226</v>
       </c>
       <c r="H21" t="n">
-        <v>3002</v>
+        <v>6004</v>
       </c>
       <c r="I21" t="n">
-        <v>691</v>
+        <v>1382</v>
       </c>
       <c r="J21" t="n">
-        <v>3229</v>
+        <v>6458</v>
       </c>
       <c r="K21" t="n">
-        <v>1118</v>
+        <v>2236</v>
       </c>
       <c r="L21" t="n">
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="M21" t="n">
-        <v>597</v>
+        <v>1194</v>
       </c>
       <c r="N21" t="n">
-        <v>634</v>
+        <v>1268</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>24831</v>
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -2023,37 +2023,37 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>2172</v>
+        <v>4344</v>
       </c>
       <c r="E22" t="n">
-        <v>510</v>
+        <v>1020</v>
       </c>
       <c r="F22" t="n">
-        <v>1484</v>
+        <v>2968</v>
       </c>
       <c r="G22" t="n">
-        <v>2404</v>
+        <v>4808</v>
       </c>
       <c r="H22" t="n">
-        <v>578</v>
+        <v>1156</v>
       </c>
       <c r="I22" t="n">
-        <v>1459</v>
+        <v>2918</v>
       </c>
       <c r="J22" t="n">
-        <v>1614</v>
+        <v>3228</v>
       </c>
       <c r="K22" t="n">
-        <v>868</v>
+        <v>1736</v>
       </c>
       <c r="L22" t="n">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="M22" t="n">
-        <v>381</v>
+        <v>762</v>
       </c>
       <c r="N22" t="n">
-        <v>486</v>
+        <v>972</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>12168</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -2096,37 +2096,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>786</v>
+        <v>1572</v>
       </c>
       <c r="E23" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="F23" t="n">
-        <v>901</v>
+        <v>1802</v>
       </c>
       <c r="G23" t="n">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="H23" t="n">
-        <v>352</v>
+        <v>704</v>
       </c>
       <c r="I23" t="n">
-        <v>1288</v>
+        <v>2576</v>
       </c>
       <c r="J23" t="n">
-        <v>797</v>
+        <v>1594</v>
       </c>
       <c r="K23" t="n">
-        <v>423</v>
+        <v>846</v>
       </c>
       <c r="L23" t="n">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="M23" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="N23" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6873</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -2169,37 +2169,37 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F24" t="n">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="G24" t="n">
-        <v>331</v>
+        <v>662</v>
       </c>
       <c r="H24" t="n">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="I24" t="n">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="J24" t="n">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="K24" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L24" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M24" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N24" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1388</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -2242,44 +2242,44 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="E25" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F25" t="n">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="G25" t="n">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="H25" t="n">
+        <v>64</v>
+      </c>
+      <c r="I25" t="n">
+        <v>52</v>
+      </c>
+      <c r="J25" t="n">
+        <v>176</v>
+      </c>
+      <c r="K25" t="n">
+        <v>82</v>
+      </c>
+      <c r="L25" t="n">
+        <v>80</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>56</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>32</v>
       </c>
-      <c r="I25" t="n">
-        <v>26</v>
-      </c>
-      <c r="J25" t="n">
-        <v>88</v>
-      </c>
-      <c r="K25" t="n">
-        <v>41</v>
-      </c>
-      <c r="L25" t="n">
-        <v>40</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>28</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>16</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>668</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -2315,43 +2315,43 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
+        <v>44</v>
+      </c>
+      <c r="F26" t="n">
+        <v>124</v>
+      </c>
+      <c r="G26" t="n">
+        <v>94</v>
+      </c>
+      <c r="H26" t="n">
+        <v>62</v>
+      </c>
+      <c r="I26" t="n">
+        <v>48</v>
+      </c>
+      <c r="J26" t="n">
+        <v>86</v>
+      </c>
+      <c r="K26" t="n">
+        <v>46</v>
+      </c>
+      <c r="L26" t="n">
         <v>22</v>
       </c>
-      <c r="F26" t="n">
-        <v>62</v>
-      </c>
-      <c r="G26" t="n">
-        <v>47</v>
-      </c>
-      <c r="H26" t="n">
-        <v>31</v>
-      </c>
-      <c r="I26" t="n">
-        <v>24</v>
-      </c>
-      <c r="J26" t="n">
-        <v>43</v>
-      </c>
-      <c r="K26" t="n">
-        <v>23</v>
-      </c>
-      <c r="L26" t="n">
-        <v>11</v>
-      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -2388,50 +2388,50 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F27" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G27" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J27" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L27" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
+        <v>32</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>16</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>8</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -2461,37 +2461,37 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F28" t="n">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="G28" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="H28" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I28" t="n">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="J28" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L28" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M28" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N28" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -2534,37 +2534,37 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>2442</v>
+        <v>4884</v>
       </c>
       <c r="E29" t="n">
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="F29" t="n">
-        <v>867</v>
+        <v>1734</v>
       </c>
       <c r="G29" t="n">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="H29" t="n">
-        <v>614</v>
+        <v>1228</v>
       </c>
       <c r="I29" t="n">
-        <v>538</v>
+        <v>1076</v>
       </c>
       <c r="J29" t="n">
-        <v>862</v>
+        <v>1724</v>
       </c>
       <c r="K29" t="n">
-        <v>304</v>
+        <v>608</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="N29" t="n">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7451</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -2607,37 +2607,37 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>639</v>
+        <v>1278</v>
       </c>
       <c r="E30" t="n">
-        <v>414</v>
+        <v>828</v>
       </c>
       <c r="F30" t="n">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="G30" t="n">
-        <v>1854</v>
+        <v>3708</v>
       </c>
       <c r="H30" t="n">
-        <v>401</v>
+        <v>802</v>
       </c>
       <c r="I30" t="n">
-        <v>2577</v>
+        <v>5154</v>
       </c>
       <c r="J30" t="n">
-        <v>1289</v>
+        <v>2578</v>
       </c>
       <c r="K30" t="n">
-        <v>545</v>
+        <v>1090</v>
       </c>
       <c r="L30" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M30" t="n">
-        <v>358</v>
+        <v>716</v>
       </c>
       <c r="N30" t="n">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10147</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -2680,37 +2680,37 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1053</v>
+        <v>2106</v>
       </c>
       <c r="E31" t="n">
-        <v>563</v>
+        <v>1126</v>
       </c>
       <c r="F31" t="n">
-        <v>1791</v>
+        <v>3582</v>
       </c>
       <c r="G31" t="n">
-        <v>2302</v>
+        <v>4604</v>
       </c>
       <c r="H31" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I31" t="n">
-        <v>2998</v>
+        <v>5996</v>
       </c>
       <c r="J31" t="n">
-        <v>1707</v>
+        <v>3414</v>
       </c>
       <c r="K31" t="n">
-        <v>851</v>
+        <v>1702</v>
       </c>
       <c r="L31" t="n">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="M31" t="n">
-        <v>429</v>
+        <v>858</v>
       </c>
       <c r="N31" t="n">
-        <v>441</v>
+        <v>882</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>13011</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -2753,37 +2753,37 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>6768</v>
+        <v>13536</v>
       </c>
       <c r="E32" t="n">
-        <v>733</v>
+        <v>1466</v>
       </c>
       <c r="F32" t="n">
-        <v>1675</v>
+        <v>3350</v>
       </c>
       <c r="G32" t="n">
-        <v>2229</v>
+        <v>4458</v>
       </c>
       <c r="H32" t="n">
-        <v>2429</v>
+        <v>4858</v>
       </c>
       <c r="I32" t="n">
-        <v>1125</v>
+        <v>2250</v>
       </c>
       <c r="J32" t="n">
-        <v>1785</v>
+        <v>3570</v>
       </c>
       <c r="K32" t="n">
-        <v>818</v>
+        <v>1636</v>
       </c>
       <c r="L32" t="n">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="M32" t="n">
-        <v>452</v>
+        <v>904</v>
       </c>
       <c r="N32" t="n">
-        <v>509</v>
+        <v>1018</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>18720</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -2826,37 +2826,37 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>6222</v>
+        <v>12444</v>
       </c>
       <c r="E33" t="n">
-        <v>1790</v>
+        <v>3580</v>
       </c>
       <c r="F33" t="n">
-        <v>3849</v>
+        <v>7698</v>
       </c>
       <c r="G33" t="n">
-        <v>4599</v>
+        <v>9198</v>
       </c>
       <c r="H33" t="n">
-        <v>3091</v>
+        <v>6182</v>
       </c>
       <c r="I33" t="n">
-        <v>801</v>
+        <v>1602</v>
       </c>
       <c r="J33" t="n">
-        <v>3215</v>
+        <v>6430</v>
       </c>
       <c r="K33" t="n">
-        <v>925</v>
+        <v>1850</v>
       </c>
       <c r="L33" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="M33" t="n">
-        <v>602</v>
+        <v>1204</v>
       </c>
       <c r="N33" t="n">
-        <v>815</v>
+        <v>1630</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>26183</v>
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -2899,37 +2899,37 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>2189</v>
+        <v>4378</v>
       </c>
       <c r="E34" t="n">
-        <v>703</v>
+        <v>1406</v>
       </c>
       <c r="F34" t="n">
-        <v>1937</v>
+        <v>3874</v>
       </c>
       <c r="G34" t="n">
-        <v>2368</v>
+        <v>4736</v>
       </c>
       <c r="H34" t="n">
-        <v>601</v>
+        <v>1202</v>
       </c>
       <c r="I34" t="n">
-        <v>2040</v>
+        <v>4080</v>
       </c>
       <c r="J34" t="n">
-        <v>1838</v>
+        <v>3676</v>
       </c>
       <c r="K34" t="n">
-        <v>705</v>
+        <v>1410</v>
       </c>
       <c r="L34" t="n">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="M34" t="n">
-        <v>411</v>
+        <v>822</v>
       </c>
       <c r="N34" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>13470</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -2972,37 +2972,37 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>839</v>
+        <v>1678</v>
       </c>
       <c r="E35" t="n">
-        <v>388</v>
+        <v>776</v>
       </c>
       <c r="F35" t="n">
-        <v>1145</v>
+        <v>2290</v>
       </c>
       <c r="G35" t="n">
-        <v>1366</v>
+        <v>2732</v>
       </c>
       <c r="H35" t="n">
-        <v>346</v>
+        <v>692</v>
       </c>
       <c r="I35" t="n">
-        <v>1484</v>
+        <v>2968</v>
       </c>
       <c r="J35" t="n">
-        <v>965</v>
+        <v>1930</v>
       </c>
       <c r="K35" t="n">
-        <v>356</v>
+        <v>712</v>
       </c>
       <c r="L35" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="M35" t="n">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="N35" t="n">
-        <v>334</v>
+        <v>668</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7700</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -3045,38 +3045,38 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="E36" t="n">
+        <v>340</v>
+      </c>
+      <c r="F36" t="n">
+        <v>556</v>
+      </c>
+      <c r="G36" t="n">
+        <v>654</v>
+      </c>
+      <c r="H36" t="n">
+        <v>160</v>
+      </c>
+      <c r="I36" t="n">
+        <v>442</v>
+      </c>
+      <c r="J36" t="n">
+        <v>400</v>
+      </c>
+      <c r="K36" t="n">
+        <v>146</v>
+      </c>
+      <c r="L36" t="n">
+        <v>162</v>
+      </c>
+      <c r="M36" t="n">
+        <v>124</v>
+      </c>
+      <c r="N36" t="n">
         <v>170</v>
       </c>
-      <c r="F36" t="n">
-        <v>278</v>
-      </c>
-      <c r="G36" t="n">
-        <v>327</v>
-      </c>
-      <c r="H36" t="n">
-        <v>80</v>
-      </c>
-      <c r="I36" t="n">
-        <v>221</v>
-      </c>
-      <c r="J36" t="n">
-        <v>200</v>
-      </c>
-      <c r="K36" t="n">
-        <v>73</v>
-      </c>
-      <c r="L36" t="n">
-        <v>81</v>
-      </c>
-      <c r="M36" t="n">
-        <v>62</v>
-      </c>
-      <c r="N36" t="n">
-        <v>85</v>
-      </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -3118,38 +3118,38 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="E37" t="n">
+        <v>172</v>
+      </c>
+      <c r="F37" t="n">
+        <v>250</v>
+      </c>
+      <c r="G37" t="n">
+        <v>330</v>
+      </c>
+      <c r="H37" t="n">
+        <v>102</v>
+      </c>
+      <c r="I37" t="n">
+        <v>74</v>
+      </c>
+      <c r="J37" t="n">
+        <v>252</v>
+      </c>
+      <c r="K37" t="n">
+        <v>98</v>
+      </c>
+      <c r="L37" t="n">
+        <v>66</v>
+      </c>
+      <c r="M37" t="n">
+        <v>48</v>
+      </c>
+      <c r="N37" t="n">
         <v>86</v>
       </c>
-      <c r="F37" t="n">
-        <v>125</v>
-      </c>
-      <c r="G37" t="n">
-        <v>165</v>
-      </c>
-      <c r="H37" t="n">
-        <v>51</v>
-      </c>
-      <c r="I37" t="n">
-        <v>37</v>
-      </c>
-      <c r="J37" t="n">
-        <v>126</v>
-      </c>
-      <c r="K37" t="n">
-        <v>49</v>
-      </c>
-      <c r="L37" t="n">
-        <v>33</v>
-      </c>
-      <c r="M37" t="n">
-        <v>24</v>
-      </c>
-      <c r="N37" t="n">
-        <v>43</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -3191,44 +3191,44 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>116</v>
+      </c>
+      <c r="G38" t="n">
+        <v>102</v>
+      </c>
+      <c r="H38" t="n">
+        <v>66</v>
+      </c>
+      <c r="I38" t="n">
+        <v>34</v>
+      </c>
+      <c r="J38" t="n">
+        <v>104</v>
+      </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
+      <c r="L38" t="n">
+        <v>44</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>30</v>
       </c>
-      <c r="F38" t="n">
-        <v>58</v>
-      </c>
-      <c r="G38" t="n">
-        <v>51</v>
-      </c>
-      <c r="H38" t="n">
-        <v>33</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>52</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>18</v>
       </c>
-      <c r="L38" t="n">
-        <v>22</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>15</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>9</v>
-      </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -3264,37 +3264,37 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F39" t="n">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="G39" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H39" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="I39" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J39" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L39" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M39" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N39" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>665</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -3337,37 +3337,37 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>669</v>
+        <v>1338</v>
       </c>
       <c r="E40" t="n">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="F40" t="n">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="G40" t="n">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="H40" t="n">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="I40" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="J40" t="n">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="K40" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="L40" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M40" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N40" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1680</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -3410,37 +3410,37 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>1757</v>
+        <v>3514</v>
       </c>
       <c r="E41" t="n">
-        <v>539</v>
+        <v>1078</v>
       </c>
       <c r="F41" t="n">
-        <v>993</v>
+        <v>1986</v>
       </c>
       <c r="G41" t="n">
-        <v>1243</v>
+        <v>2486</v>
       </c>
       <c r="H41" t="n">
-        <v>723</v>
+        <v>1446</v>
       </c>
       <c r="I41" t="n">
-        <v>876</v>
+        <v>1752</v>
       </c>
       <c r="J41" t="n">
-        <v>1026</v>
+        <v>2052</v>
       </c>
       <c r="K41" t="n">
-        <v>363</v>
+        <v>726</v>
       </c>
       <c r="L41" t="n">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="M41" t="n">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="N41" t="n">
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8115</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -3483,37 +3483,37 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>779</v>
+        <v>1558</v>
       </c>
       <c r="E42" t="n">
-        <v>874</v>
+        <v>1748</v>
       </c>
       <c r="F42" t="n">
-        <v>1669</v>
+        <v>3338</v>
       </c>
       <c r="G42" t="n">
-        <v>2311</v>
+        <v>4622</v>
       </c>
       <c r="H42" t="n">
-        <v>455</v>
+        <v>910</v>
       </c>
       <c r="I42" t="n">
-        <v>3077</v>
+        <v>6154</v>
       </c>
       <c r="J42" t="n">
-        <v>1827</v>
+        <v>3654</v>
       </c>
       <c r="K42" t="n">
-        <v>736</v>
+        <v>1472</v>
       </c>
       <c r="L42" t="n">
-        <v>211</v>
+        <v>422</v>
       </c>
       <c r="M42" t="n">
-        <v>552</v>
+        <v>1104</v>
       </c>
       <c r="N42" t="n">
-        <v>433</v>
+        <v>866</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>12924</v>
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -3556,37 +3556,37 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1410</v>
+        <v>2820</v>
       </c>
       <c r="E43" t="n">
-        <v>783</v>
+        <v>1566</v>
       </c>
       <c r="F43" t="n">
-        <v>1870</v>
+        <v>3740</v>
       </c>
       <c r="G43" t="n">
-        <v>2874</v>
+        <v>5748</v>
       </c>
       <c r="H43" t="n">
-        <v>728</v>
+        <v>1456</v>
       </c>
       <c r="I43" t="n">
-        <v>3382</v>
+        <v>6764</v>
       </c>
       <c r="J43" t="n">
-        <v>2050</v>
+        <v>4100</v>
       </c>
       <c r="K43" t="n">
-        <v>792</v>
+        <v>1584</v>
       </c>
       <c r="L43" t="n">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="M43" t="n">
-        <v>558</v>
+        <v>1116</v>
       </c>
       <c r="N43" t="n">
-        <v>469</v>
+        <v>938</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>15182</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -3629,40 +3629,40 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>7006</v>
+        <v>14012</v>
       </c>
       <c r="E44" t="n">
-        <v>875</v>
+        <v>1750</v>
       </c>
       <c r="F44" t="n">
-        <v>1740</v>
+        <v>3480</v>
       </c>
       <c r="G44" t="n">
-        <v>2559</v>
+        <v>5118</v>
       </c>
       <c r="H44" t="n">
-        <v>2596</v>
+        <v>5192</v>
       </c>
       <c r="I44" t="n">
-        <v>1265</v>
+        <v>2530</v>
       </c>
       <c r="J44" t="n">
-        <v>1918</v>
+        <v>3836</v>
       </c>
       <c r="K44" t="n">
-        <v>881</v>
+        <v>1762</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>469</v>
+        <v>938</v>
       </c>
       <c r="N44" t="n">
-        <v>614</v>
+        <v>1228</v>
       </c>
       <c r="O44" t="n">
-        <v>233</v>
+        <v>466</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>20156</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -3702,37 +3702,37 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>6105</v>
+        <v>12210</v>
       </c>
       <c r="E45" t="n">
-        <v>2410</v>
+        <v>4820</v>
       </c>
       <c r="F45" t="n">
-        <v>3499</v>
+        <v>6998</v>
       </c>
       <c r="G45" t="n">
-        <v>4850</v>
+        <v>9700</v>
       </c>
       <c r="H45" t="n">
-        <v>3404</v>
+        <v>6808</v>
       </c>
       <c r="I45" t="n">
-        <v>882</v>
+        <v>1764</v>
       </c>
       <c r="J45" t="n">
-        <v>3468</v>
+        <v>6936</v>
       </c>
       <c r="K45" t="n">
-        <v>966</v>
+        <v>1932</v>
       </c>
       <c r="L45" t="n">
-        <v>258</v>
+        <v>516</v>
       </c>
       <c r="M45" t="n">
-        <v>597</v>
+        <v>1194</v>
       </c>
       <c r="N45" t="n">
-        <v>850</v>
+        <v>1700</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>27289</v>
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -3775,37 +3775,37 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>2235</v>
+        <v>4470</v>
       </c>
       <c r="E46" t="n">
-        <v>1035</v>
+        <v>2070</v>
       </c>
       <c r="F46" t="n">
-        <v>1845</v>
+        <v>3690</v>
       </c>
       <c r="G46" t="n">
-        <v>2819</v>
+        <v>5638</v>
       </c>
       <c r="H46" t="n">
-        <v>622</v>
+        <v>1244</v>
       </c>
       <c r="I46" t="n">
-        <v>2245</v>
+        <v>4490</v>
       </c>
       <c r="J46" t="n">
-        <v>2289</v>
+        <v>4578</v>
       </c>
       <c r="K46" t="n">
-        <v>976</v>
+        <v>1952</v>
       </c>
       <c r="L46" t="n">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="M46" t="n">
-        <v>504</v>
+        <v>1008</v>
       </c>
       <c r="N46" t="n">
-        <v>491</v>
+        <v>982</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>15282</v>
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -16900,6 +16900,152 @@
       </c>
       <c r="W225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>85</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>190</v>
+      </c>
+      <c r="G226" t="n">
+        <v>385</v>
+      </c>
+      <c r="H226" t="n">
+        <v>59</v>
+      </c>
+      <c r="I226" t="n">
+        <v>379</v>
+      </c>
+      <c r="J226" t="n">
+        <v>77</v>
+      </c>
+      <c r="K226" t="n">
+        <v>60</v>
+      </c>
+      <c r="L226" t="n">
+        <v>51</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>9157</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" t="n">
+        <v>802</v>
+      </c>
+      <c r="W226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>23</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>14</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4246</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>400</v>
+      </c>
+      <c r="W227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_groups_wide.xlsx
+++ b/Data/Excel_Wide/camino_groups_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W227"/>
+  <dimension ref="A1:W228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,37 +563,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="F2" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="K2" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M2" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -636,37 +636,37 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>972</v>
+        <v>486</v>
       </c>
       <c r="E3" t="n">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="F3" t="n">
-        <v>370</v>
+        <v>185</v>
       </c>
       <c r="G3" t="n">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="H3" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J3" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="K3" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="L3" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M3" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -709,37 +709,37 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1644</v>
+        <v>822</v>
       </c>
       <c r="E4" t="n">
-        <v>752</v>
+        <v>376</v>
       </c>
       <c r="F4" t="n">
-        <v>698</v>
+        <v>349</v>
       </c>
       <c r="G4" t="n">
-        <v>716</v>
+        <v>358</v>
       </c>
       <c r="H4" t="n">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="I4" t="n">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="J4" t="n">
-        <v>566</v>
+        <v>283</v>
       </c>
       <c r="K4" t="n">
-        <v>502</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="M4" t="n">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="N4" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -782,37 +782,37 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>9104</v>
+        <v>4552</v>
       </c>
       <c r="E5" t="n">
-        <v>2884</v>
+        <v>1442</v>
       </c>
       <c r="F5" t="n">
-        <v>3936</v>
+        <v>1968</v>
       </c>
       <c r="G5" t="n">
-        <v>4194</v>
+        <v>2097</v>
       </c>
       <c r="H5" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="I5" t="n">
-        <v>1658</v>
+        <v>829</v>
       </c>
       <c r="J5" t="n">
-        <v>2772</v>
+        <v>1386</v>
       </c>
       <c r="K5" t="n">
-        <v>1626</v>
+        <v>813</v>
       </c>
       <c r="L5" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="M5" t="n">
-        <v>1666</v>
+        <v>833</v>
       </c>
       <c r="N5" t="n">
-        <v>688</v>
+        <v>344</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -855,37 +855,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2392</v>
+        <v>1196</v>
       </c>
       <c r="E6" t="n">
-        <v>2094</v>
+        <v>1047</v>
       </c>
       <c r="F6" t="n">
-        <v>5024</v>
+        <v>2512</v>
       </c>
       <c r="G6" t="n">
-        <v>7252</v>
+        <v>3626</v>
       </c>
       <c r="H6" t="n">
-        <v>1196</v>
+        <v>598</v>
       </c>
       <c r="I6" t="n">
-        <v>5280</v>
+        <v>2640</v>
       </c>
       <c r="J6" t="n">
-        <v>3880</v>
+        <v>1940</v>
       </c>
       <c r="K6" t="n">
-        <v>2440</v>
+        <v>1220</v>
       </c>
       <c r="L6" t="n">
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="M6" t="n">
-        <v>2668</v>
+        <v>1334</v>
       </c>
       <c r="N6" t="n">
-        <v>984</v>
+        <v>492</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -928,37 +928,37 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4326</v>
+        <v>2163</v>
       </c>
       <c r="E7" t="n">
-        <v>2742</v>
+        <v>1371</v>
       </c>
       <c r="F7" t="n">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="G7" t="n">
-        <v>7476</v>
+        <v>3738</v>
       </c>
       <c r="H7" t="n">
-        <v>1714</v>
+        <v>857</v>
       </c>
       <c r="I7" t="n">
-        <v>4972</v>
+        <v>2486</v>
       </c>
       <c r="J7" t="n">
-        <v>4640</v>
+        <v>2320</v>
       </c>
       <c r="K7" t="n">
-        <v>2934</v>
+        <v>1467</v>
       </c>
       <c r="L7" t="n">
-        <v>658</v>
+        <v>329</v>
       </c>
       <c r="M7" t="n">
-        <v>2552</v>
+        <v>1276</v>
       </c>
       <c r="N7" t="n">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -1001,37 +1001,37 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>24060</v>
+        <v>12030</v>
       </c>
       <c r="E8" t="n">
-        <v>2782</v>
+        <v>1391</v>
       </c>
       <c r="F8" t="n">
-        <v>5970</v>
+        <v>2985</v>
       </c>
       <c r="G8" t="n">
-        <v>7710</v>
+        <v>3855</v>
       </c>
       <c r="H8" t="n">
-        <v>6238</v>
+        <v>3119</v>
       </c>
       <c r="I8" t="n">
-        <v>3092</v>
+        <v>1546</v>
       </c>
       <c r="J8" t="n">
-        <v>5336</v>
+        <v>2668</v>
       </c>
       <c r="K8" t="n">
-        <v>3458</v>
+        <v>1729</v>
       </c>
       <c r="L8" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="M8" t="n">
-        <v>2886</v>
+        <v>1443</v>
       </c>
       <c r="N8" t="n">
-        <v>1702</v>
+        <v>851</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -1074,40 +1074,40 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>31136</v>
+        <v>15568</v>
       </c>
       <c r="E9" t="n">
-        <v>6438</v>
+        <v>3219</v>
       </c>
       <c r="F9" t="n">
-        <v>10640</v>
+        <v>5320</v>
       </c>
       <c r="G9" t="n">
-        <v>14218</v>
+        <v>7109</v>
       </c>
       <c r="H9" t="n">
-        <v>7818</v>
+        <v>3909</v>
       </c>
       <c r="I9" t="n">
-        <v>1926</v>
+        <v>963</v>
       </c>
       <c r="J9" t="n">
-        <v>8308</v>
+        <v>4154</v>
       </c>
       <c r="K9" t="n">
-        <v>3162</v>
+        <v>1581</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3508</v>
+        <v>1754</v>
       </c>
       <c r="N9" t="n">
-        <v>2902</v>
+        <v>1451</v>
       </c>
       <c r="O9" t="n">
-        <v>1146</v>
+        <v>573</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -1147,37 +1147,37 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>9682</v>
+        <v>4841</v>
       </c>
       <c r="E10" t="n">
-        <v>2578</v>
+        <v>1289</v>
       </c>
       <c r="F10" t="n">
-        <v>5930</v>
+        <v>2965</v>
       </c>
       <c r="G10" t="n">
-        <v>8540</v>
+        <v>4270</v>
       </c>
       <c r="H10" t="n">
-        <v>1868</v>
+        <v>934</v>
       </c>
       <c r="I10" t="n">
-        <v>4106</v>
+        <v>2053</v>
       </c>
       <c r="J10" t="n">
-        <v>5428</v>
+        <v>2714</v>
       </c>
       <c r="K10" t="n">
-        <v>2820</v>
+        <v>1410</v>
       </c>
       <c r="L10" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="M10" t="n">
-        <v>2482</v>
+        <v>1241</v>
       </c>
       <c r="N10" t="n">
-        <v>1530</v>
+        <v>765</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -1220,37 +1220,37 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>4744</v>
+        <v>2372</v>
       </c>
       <c r="E11" t="n">
-        <v>1564</v>
+        <v>782</v>
       </c>
       <c r="F11" t="n">
-        <v>4650</v>
+        <v>2325</v>
       </c>
       <c r="G11" t="n">
-        <v>4982</v>
+        <v>2491</v>
       </c>
       <c r="H11" t="n">
-        <v>1230</v>
+        <v>615</v>
       </c>
       <c r="I11" t="n">
-        <v>3060</v>
+        <v>1530</v>
       </c>
       <c r="J11" t="n">
-        <v>3714</v>
+        <v>1857</v>
       </c>
       <c r="K11" t="n">
-        <v>1914</v>
+        <v>957</v>
       </c>
       <c r="L11" t="n">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="M11" t="n">
-        <v>1844</v>
+        <v>922</v>
       </c>
       <c r="N11" t="n">
-        <v>926</v>
+        <v>463</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -1293,37 +1293,37 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>772</v>
+        <v>386</v>
       </c>
       <c r="E12" t="n">
-        <v>820</v>
+        <v>410</v>
       </c>
       <c r="F12" t="n">
-        <v>1448</v>
+        <v>724</v>
       </c>
       <c r="G12" t="n">
-        <v>1832</v>
+        <v>916</v>
       </c>
       <c r="H12" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="I12" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
       <c r="J12" t="n">
-        <v>982</v>
+        <v>491</v>
       </c>
       <c r="K12" t="n">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="L12" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
-        <v>748</v>
+        <v>374</v>
       </c>
       <c r="N12" t="n">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -1366,37 +1366,37 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1114</v>
+        <v>557</v>
       </c>
       <c r="E13" t="n">
-        <v>914</v>
+        <v>457</v>
       </c>
       <c r="F13" t="n">
-        <v>1064</v>
+        <v>532</v>
       </c>
       <c r="G13" t="n">
-        <v>1310</v>
+        <v>655</v>
       </c>
       <c r="H13" t="n">
-        <v>454</v>
+        <v>227</v>
       </c>
       <c r="I13" t="n">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="J13" t="n">
-        <v>954</v>
+        <v>477</v>
       </c>
       <c r="K13" t="n">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="L13" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="M13" t="n">
-        <v>612</v>
+        <v>306</v>
       </c>
       <c r="N13" t="n">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -1439,43 +1439,43 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -1512,37 +1512,37 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="H15" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K15" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -1585,37 +1585,37 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="E16" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="F16" t="n">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="G16" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
       <c r="H16" t="n">
-        <v>532</v>
+        <v>266</v>
       </c>
       <c r="I16" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J16" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="K16" t="n">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="L16" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M16" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="N16" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -1658,37 +1658,37 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1468</v>
+        <v>734</v>
       </c>
       <c r="E17" t="n">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="F17" t="n">
-        <v>810</v>
+        <v>405</v>
       </c>
       <c r="G17" t="n">
-        <v>1010</v>
+        <v>505</v>
       </c>
       <c r="H17" t="n">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="I17" t="n">
-        <v>874</v>
+        <v>437</v>
       </c>
       <c r="J17" t="n">
-        <v>758</v>
+        <v>379</v>
       </c>
       <c r="K17" t="n">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="L17" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="M17" t="n">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="N17" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -1731,37 +1731,37 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>1222</v>
+        <v>611</v>
       </c>
       <c r="E18" t="n">
-        <v>810</v>
+        <v>405</v>
       </c>
       <c r="F18" t="n">
-        <v>2414</v>
+        <v>1207</v>
       </c>
       <c r="G18" t="n">
-        <v>3468</v>
+        <v>1734</v>
       </c>
       <c r="H18" t="n">
-        <v>766</v>
+        <v>383</v>
       </c>
       <c r="I18" t="n">
-        <v>4260</v>
+        <v>2130</v>
       </c>
       <c r="J18" t="n">
-        <v>2806</v>
+        <v>1403</v>
       </c>
       <c r="K18" t="n">
-        <v>1068</v>
+        <v>534</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>784</v>
+        <v>392</v>
       </c>
       <c r="N18" t="n">
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -1804,37 +1804,37 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>2302</v>
+        <v>1151</v>
       </c>
       <c r="E19" t="n">
-        <v>1178</v>
+        <v>589</v>
       </c>
       <c r="F19" t="n">
-        <v>3032</v>
+        <v>1516</v>
       </c>
       <c r="G19" t="n">
-        <v>4396</v>
+        <v>2198</v>
       </c>
       <c r="H19" t="n">
-        <v>1030</v>
+        <v>515</v>
       </c>
       <c r="I19" t="n">
-        <v>5822</v>
+        <v>2911</v>
       </c>
       <c r="J19" t="n">
-        <v>3458</v>
+        <v>1729</v>
       </c>
       <c r="K19" t="n">
-        <v>1518</v>
+        <v>759</v>
       </c>
       <c r="L19" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="M19" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
       <c r="N19" t="n">
-        <v>926</v>
+        <v>463</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -1877,37 +1877,37 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>12924</v>
+        <v>6462</v>
       </c>
       <c r="E20" t="n">
-        <v>1578</v>
+        <v>789</v>
       </c>
       <c r="F20" t="n">
-        <v>3362</v>
+        <v>1681</v>
       </c>
       <c r="G20" t="n">
-        <v>4524</v>
+        <v>2262</v>
       </c>
       <c r="H20" t="n">
-        <v>4832</v>
+        <v>2416</v>
       </c>
       <c r="I20" t="n">
-        <v>2380</v>
+        <v>1190</v>
       </c>
       <c r="J20" t="n">
-        <v>3562</v>
+        <v>1781</v>
       </c>
       <c r="K20" t="n">
-        <v>1822</v>
+        <v>911</v>
       </c>
       <c r="L20" t="n">
-        <v>476</v>
+        <v>238</v>
       </c>
       <c r="M20" t="n">
-        <v>1082</v>
+        <v>541</v>
       </c>
       <c r="N20" t="n">
-        <v>1066</v>
+        <v>533</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -1950,37 +1950,37 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>10396</v>
+        <v>5198</v>
       </c>
       <c r="E21" t="n">
-        <v>3526</v>
+        <v>1763</v>
       </c>
       <c r="F21" t="n">
-        <v>6388</v>
+        <v>3194</v>
       </c>
       <c r="G21" t="n">
-        <v>10226</v>
+        <v>5113</v>
       </c>
       <c r="H21" t="n">
-        <v>6004</v>
+        <v>3002</v>
       </c>
       <c r="I21" t="n">
-        <v>1382</v>
+        <v>691</v>
       </c>
       <c r="J21" t="n">
-        <v>6458</v>
+        <v>3229</v>
       </c>
       <c r="K21" t="n">
-        <v>2236</v>
+        <v>1118</v>
       </c>
       <c r="L21" t="n">
-        <v>584</v>
+        <v>292</v>
       </c>
       <c r="M21" t="n">
-        <v>1194</v>
+        <v>597</v>
       </c>
       <c r="N21" t="n">
-        <v>1268</v>
+        <v>634</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -2023,37 +2023,37 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>4344</v>
+        <v>2172</v>
       </c>
       <c r="E22" t="n">
-        <v>1020</v>
+        <v>510</v>
       </c>
       <c r="F22" t="n">
-        <v>2968</v>
+        <v>1484</v>
       </c>
       <c r="G22" t="n">
-        <v>4808</v>
+        <v>2404</v>
       </c>
       <c r="H22" t="n">
-        <v>1156</v>
+        <v>578</v>
       </c>
       <c r="I22" t="n">
-        <v>2918</v>
+        <v>1459</v>
       </c>
       <c r="J22" t="n">
-        <v>3228</v>
+        <v>1614</v>
       </c>
       <c r="K22" t="n">
-        <v>1736</v>
+        <v>868</v>
       </c>
       <c r="L22" t="n">
-        <v>424</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
-        <v>762</v>
+        <v>381</v>
       </c>
       <c r="N22" t="n">
-        <v>972</v>
+        <v>486</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -2096,37 +2096,37 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>1572</v>
+        <v>786</v>
       </c>
       <c r="E23" t="n">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="F23" t="n">
-        <v>1802</v>
+        <v>901</v>
       </c>
       <c r="G23" t="n">
-        <v>2780</v>
+        <v>1390</v>
       </c>
       <c r="H23" t="n">
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="I23" t="n">
-        <v>2576</v>
+        <v>1288</v>
       </c>
       <c r="J23" t="n">
-        <v>1594</v>
+        <v>797</v>
       </c>
       <c r="K23" t="n">
-        <v>846</v>
+        <v>423</v>
       </c>
       <c r="L23" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="M23" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N23" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -2169,37 +2169,37 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="E24" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F24" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="G24" t="n">
-        <v>662</v>
+        <v>331</v>
       </c>
       <c r="H24" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="I24" t="n">
-        <v>316</v>
+        <v>158</v>
       </c>
       <c r="J24" t="n">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="K24" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L24" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M24" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N24" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -2242,43 +2242,43 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="F25" t="n">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="G25" t="n">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="H25" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I25" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J25" t="n">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="K25" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="L25" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -2315,43 +2315,43 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" t="n">
         <v>62</v>
       </c>
-      <c r="E26" t="n">
-        <v>44</v>
-      </c>
-      <c r="F26" t="n">
-        <v>124</v>
-      </c>
       <c r="G26" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="H26" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I26" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="K26" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L26" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -2388,38 +2388,38 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="E27" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K27" t="n">
+        <v>8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>17</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>16</v>
       </c>
-      <c r="L27" t="n">
-        <v>34</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>32</v>
-      </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -2461,37 +2461,37 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="G28" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="H28" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I28" t="n">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="J28" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L28" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M28" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -2534,37 +2534,37 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4884</v>
+        <v>2442</v>
       </c>
       <c r="E29" t="n">
-        <v>530</v>
+        <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>1734</v>
+        <v>867</v>
       </c>
       <c r="G29" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="H29" t="n">
-        <v>1228</v>
+        <v>614</v>
       </c>
       <c r="I29" t="n">
-        <v>1076</v>
+        <v>538</v>
       </c>
       <c r="J29" t="n">
-        <v>1724</v>
+        <v>862</v>
       </c>
       <c r="K29" t="n">
-        <v>608</v>
+        <v>304</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="N29" t="n">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -2607,37 +2607,37 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>1278</v>
+        <v>639</v>
       </c>
       <c r="E30" t="n">
-        <v>828</v>
+        <v>414</v>
       </c>
       <c r="F30" t="n">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="G30" t="n">
-        <v>3708</v>
+        <v>1854</v>
       </c>
       <c r="H30" t="n">
-        <v>802</v>
+        <v>401</v>
       </c>
       <c r="I30" t="n">
-        <v>5154</v>
+        <v>2577</v>
       </c>
       <c r="J30" t="n">
-        <v>2578</v>
+        <v>1289</v>
       </c>
       <c r="K30" t="n">
-        <v>1090</v>
+        <v>545</v>
       </c>
       <c r="L30" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>716</v>
+        <v>358</v>
       </c>
       <c r="N30" t="n">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -2680,37 +2680,37 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>2106</v>
+        <v>1053</v>
       </c>
       <c r="E31" t="n">
-        <v>1126</v>
+        <v>563</v>
       </c>
       <c r="F31" t="n">
-        <v>3582</v>
+        <v>1791</v>
       </c>
       <c r="G31" t="n">
-        <v>4604</v>
+        <v>2302</v>
       </c>
       <c r="H31" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="I31" t="n">
-        <v>5996</v>
+        <v>2998</v>
       </c>
       <c r="J31" t="n">
-        <v>3414</v>
+        <v>1707</v>
       </c>
       <c r="K31" t="n">
-        <v>1702</v>
+        <v>851</v>
       </c>
       <c r="L31" t="n">
-        <v>552</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
-        <v>858</v>
+        <v>429</v>
       </c>
       <c r="N31" t="n">
-        <v>882</v>
+        <v>441</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -2753,37 +2753,37 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>13536</v>
+        <v>6768</v>
       </c>
       <c r="E32" t="n">
-        <v>1466</v>
+        <v>733</v>
       </c>
       <c r="F32" t="n">
-        <v>3350</v>
+        <v>1675</v>
       </c>
       <c r="G32" t="n">
-        <v>4458</v>
+        <v>2229</v>
       </c>
       <c r="H32" t="n">
-        <v>4858</v>
+        <v>2429</v>
       </c>
       <c r="I32" t="n">
-        <v>2250</v>
+        <v>1125</v>
       </c>
       <c r="J32" t="n">
-        <v>3570</v>
+        <v>1785</v>
       </c>
       <c r="K32" t="n">
-        <v>1636</v>
+        <v>818</v>
       </c>
       <c r="L32" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="M32" t="n">
-        <v>904</v>
+        <v>452</v>
       </c>
       <c r="N32" t="n">
-        <v>1018</v>
+        <v>509</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -2826,37 +2826,37 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>12444</v>
+        <v>6222</v>
       </c>
       <c r="E33" t="n">
-        <v>3580</v>
+        <v>1790</v>
       </c>
       <c r="F33" t="n">
-        <v>7698</v>
+        <v>3849</v>
       </c>
       <c r="G33" t="n">
-        <v>9198</v>
+        <v>4599</v>
       </c>
       <c r="H33" t="n">
-        <v>6182</v>
+        <v>3091</v>
       </c>
       <c r="I33" t="n">
-        <v>1602</v>
+        <v>801</v>
       </c>
       <c r="J33" t="n">
-        <v>6430</v>
+        <v>3215</v>
       </c>
       <c r="K33" t="n">
-        <v>1850</v>
+        <v>925</v>
       </c>
       <c r="L33" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
-        <v>1204</v>
+        <v>602</v>
       </c>
       <c r="N33" t="n">
-        <v>1630</v>
+        <v>815</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -2899,37 +2899,37 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>4378</v>
+        <v>2189</v>
       </c>
       <c r="E34" t="n">
-        <v>1406</v>
+        <v>703</v>
       </c>
       <c r="F34" t="n">
-        <v>3874</v>
+        <v>1937</v>
       </c>
       <c r="G34" t="n">
-        <v>4736</v>
+        <v>2368</v>
       </c>
       <c r="H34" t="n">
-        <v>1202</v>
+        <v>601</v>
       </c>
       <c r="I34" t="n">
-        <v>4080</v>
+        <v>2040</v>
       </c>
       <c r="J34" t="n">
-        <v>3676</v>
+        <v>1838</v>
       </c>
       <c r="K34" t="n">
-        <v>1410</v>
+        <v>705</v>
       </c>
       <c r="L34" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="M34" t="n">
-        <v>822</v>
+        <v>411</v>
       </c>
       <c r="N34" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -2972,37 +2972,37 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>1678</v>
+        <v>839</v>
       </c>
       <c r="E35" t="n">
-        <v>776</v>
+        <v>388</v>
       </c>
       <c r="F35" t="n">
-        <v>2290</v>
+        <v>1145</v>
       </c>
       <c r="G35" t="n">
-        <v>2732</v>
+        <v>1366</v>
       </c>
       <c r="H35" t="n">
-        <v>692</v>
+        <v>346</v>
       </c>
       <c r="I35" t="n">
-        <v>2968</v>
+        <v>1484</v>
       </c>
       <c r="J35" t="n">
-        <v>1930</v>
+        <v>965</v>
       </c>
       <c r="K35" t="n">
-        <v>712</v>
+        <v>356</v>
       </c>
       <c r="L35" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="M35" t="n">
-        <v>510</v>
+        <v>255</v>
       </c>
       <c r="N35" t="n">
-        <v>668</v>
+        <v>334</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -3045,37 +3045,37 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="E36" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="F36" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="G36" t="n">
-        <v>654</v>
+        <v>327</v>
       </c>
       <c r="H36" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="I36" t="n">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="J36" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="L36" t="n">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="M36" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="N36" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -3118,37 +3118,37 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="E37" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G37" t="n">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="H37" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="I37" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J37" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="K37" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="L37" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M37" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N37" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -3191,43 +3191,43 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="G38" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="H38" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I38" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J38" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="K38" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L38" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -3264,37 +3264,37 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>542</v>
+        <v>271</v>
       </c>
       <c r="E39" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F39" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="G39" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H39" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I39" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J39" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="K39" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N39" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -3337,37 +3337,37 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1338</v>
+        <v>669</v>
       </c>
       <c r="E40" t="n">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="F40" t="n">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="G40" t="n">
-        <v>408</v>
+        <v>204</v>
       </c>
       <c r="H40" t="n">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="I40" t="n">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="J40" t="n">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="K40" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="L40" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="M40" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N40" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -3410,37 +3410,37 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>3514</v>
+        <v>1757</v>
       </c>
       <c r="E41" t="n">
-        <v>1078</v>
+        <v>539</v>
       </c>
       <c r="F41" t="n">
-        <v>1986</v>
+        <v>993</v>
       </c>
       <c r="G41" t="n">
-        <v>2486</v>
+        <v>1243</v>
       </c>
       <c r="H41" t="n">
-        <v>1446</v>
+        <v>723</v>
       </c>
       <c r="I41" t="n">
-        <v>1752</v>
+        <v>876</v>
       </c>
       <c r="J41" t="n">
-        <v>2052</v>
+        <v>1026</v>
       </c>
       <c r="K41" t="n">
-        <v>726</v>
+        <v>363</v>
       </c>
       <c r="L41" t="n">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="M41" t="n">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="N41" t="n">
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -3483,37 +3483,37 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>1558</v>
+        <v>779</v>
       </c>
       <c r="E42" t="n">
-        <v>1748</v>
+        <v>874</v>
       </c>
       <c r="F42" t="n">
-        <v>3338</v>
+        <v>1669</v>
       </c>
       <c r="G42" t="n">
-        <v>4622</v>
+        <v>2311</v>
       </c>
       <c r="H42" t="n">
-        <v>910</v>
+        <v>455</v>
       </c>
       <c r="I42" t="n">
-        <v>6154</v>
+        <v>3077</v>
       </c>
       <c r="J42" t="n">
-        <v>3654</v>
+        <v>1827</v>
       </c>
       <c r="K42" t="n">
-        <v>1472</v>
+        <v>736</v>
       </c>
       <c r="L42" t="n">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="M42" t="n">
-        <v>1104</v>
+        <v>552</v>
       </c>
       <c r="N42" t="n">
-        <v>866</v>
+        <v>433</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -3556,37 +3556,37 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>2820</v>
+        <v>1410</v>
       </c>
       <c r="E43" t="n">
-        <v>1566</v>
+        <v>783</v>
       </c>
       <c r="F43" t="n">
-        <v>3740</v>
+        <v>1870</v>
       </c>
       <c r="G43" t="n">
-        <v>5748</v>
+        <v>2874</v>
       </c>
       <c r="H43" t="n">
-        <v>1456</v>
+        <v>728</v>
       </c>
       <c r="I43" t="n">
-        <v>6764</v>
+        <v>3382</v>
       </c>
       <c r="J43" t="n">
-        <v>4100</v>
+        <v>2050</v>
       </c>
       <c r="K43" t="n">
-        <v>1584</v>
+        <v>792</v>
       </c>
       <c r="L43" t="n">
-        <v>532</v>
+        <v>266</v>
       </c>
       <c r="M43" t="n">
-        <v>1116</v>
+        <v>558</v>
       </c>
       <c r="N43" t="n">
-        <v>938</v>
+        <v>469</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -3629,40 +3629,40 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>14012</v>
+        <v>7006</v>
       </c>
       <c r="E44" t="n">
-        <v>1750</v>
+        <v>875</v>
       </c>
       <c r="F44" t="n">
-        <v>3480</v>
+        <v>1740</v>
       </c>
       <c r="G44" t="n">
-        <v>5118</v>
+        <v>2559</v>
       </c>
       <c r="H44" t="n">
-        <v>5192</v>
+        <v>2596</v>
       </c>
       <c r="I44" t="n">
-        <v>2530</v>
+        <v>1265</v>
       </c>
       <c r="J44" t="n">
-        <v>3836</v>
+        <v>1918</v>
       </c>
       <c r="K44" t="n">
-        <v>1762</v>
+        <v>881</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>938</v>
+        <v>469</v>
       </c>
       <c r="N44" t="n">
-        <v>1228</v>
+        <v>614</v>
       </c>
       <c r="O44" t="n">
-        <v>466</v>
+        <v>233</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -3702,37 +3702,37 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>12210</v>
+        <v>6105</v>
       </c>
       <c r="E45" t="n">
-        <v>4820</v>
+        <v>2410</v>
       </c>
       <c r="F45" t="n">
-        <v>6998</v>
+        <v>3499</v>
       </c>
       <c r="G45" t="n">
-        <v>9700</v>
+        <v>4850</v>
       </c>
       <c r="H45" t="n">
-        <v>6808</v>
+        <v>3404</v>
       </c>
       <c r="I45" t="n">
-        <v>1764</v>
+        <v>882</v>
       </c>
       <c r="J45" t="n">
-        <v>6936</v>
+        <v>3468</v>
       </c>
       <c r="K45" t="n">
-        <v>1932</v>
+        <v>966</v>
       </c>
       <c r="L45" t="n">
-        <v>516</v>
+        <v>258</v>
       </c>
       <c r="M45" t="n">
-        <v>1194</v>
+        <v>597</v>
       </c>
       <c r="N45" t="n">
-        <v>1700</v>
+        <v>850</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -3775,37 +3775,37 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>4470</v>
+        <v>2235</v>
       </c>
       <c r="E46" t="n">
-        <v>2070</v>
+        <v>1035</v>
       </c>
       <c r="F46" t="n">
-        <v>3690</v>
+        <v>1845</v>
       </c>
       <c r="G46" t="n">
-        <v>5638</v>
+        <v>2819</v>
       </c>
       <c r="H46" t="n">
-        <v>1244</v>
+        <v>622</v>
       </c>
       <c r="I46" t="n">
-        <v>4490</v>
+        <v>2245</v>
       </c>
       <c r="J46" t="n">
-        <v>4578</v>
+        <v>2289</v>
       </c>
       <c r="K46" t="n">
-        <v>1952</v>
+        <v>976</v>
       </c>
       <c r="L46" t="n">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="M46" t="n">
-        <v>1008</v>
+        <v>504</v>
       </c>
       <c r="N46" t="n">
-        <v>982</v>
+        <v>491</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -17046,6 +17046,79 @@
       </c>
       <c r="W227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>11</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1798</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>219</v>
+      </c>
+      <c r="W228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
